--- a/test/data/test.xlsx
+++ b/test/data/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>test2_1_1_1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -401,6 +397,10 @@
   </si>
   <si>
     <t>{ "name": "Test2", "type": "map", "key": "map.$.map" }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool:boolean</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2002,7 +2002,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2018,7 +2018,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2032,7 +2032,7 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -2071,10 +2071,10 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2102,7 +2102,7 @@
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2177,7 +2177,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2188,10 +2188,10 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1">
         <v>41640</v>
@@ -2202,10 +2202,10 @@
         <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1">
         <v>41640</v>
@@ -2216,10 +2216,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1">
         <v>41640</v>
@@ -2230,10 +2230,10 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1">
         <v>41640</v>
@@ -2244,10 +2244,10 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
         <v>41640</v>
@@ -2258,10 +2258,10 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1">
         <v>41640</v>
@@ -2272,10 +2272,10 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1">
         <v>41640</v>
@@ -2286,10 +2286,10 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1">
         <v>41640</v>
